--- a/SCSIPS/Data/DummyData.xlsx
+++ b/SCSIPS/Data/DummyData.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://campusuccedu-my.sharepoint.com/personal/ivan_boterob_campusucc_edu_co/Documents/Seminario/SCSIPS/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="266" documentId="8_{402A8229-9421-463C-8A30-E933CACBA46A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C0221EE7-3BA1-416C-8DFC-9A417572009D}"/>
+  <xr:revisionPtr revIDLastSave="351" documentId="8_{402A8229-9421-463C-8A30-E933CACBA46A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9AA6570D-C23E-BE43-885A-FE56D21FD56B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{42262E00-A18E-405E-A6F4-4CD503BAC744}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14280" activeTab="7" xr2:uid="{42262E00-A18E-405E-A6F4-4CD503BAC744}"/>
   </bookViews>
   <sheets>
-    <sheet name="tipo_documento" sheetId="2" r:id="rId1"/>
-    <sheet name="tipo_incidente" sheetId="3" r:id="rId2"/>
-    <sheet name="tipo_proyecto" sheetId="4" r:id="rId3"/>
-    <sheet name="rol" sheetId="5" r:id="rId4"/>
-    <sheet name="cliente" sheetId="6" r:id="rId5"/>
-    <sheet name="usuario" sheetId="7" r:id="rId6"/>
+    <sheet name="estado_incidente" sheetId="8" r:id="rId1"/>
+    <sheet name="rol" sheetId="5" r:id="rId2"/>
+    <sheet name="tipo_documento" sheetId="2" r:id="rId3"/>
+    <sheet name="tipo_incidente" sheetId="3" r:id="rId4"/>
+    <sheet name="tipo_proyecto" sheetId="4" r:id="rId5"/>
+    <sheet name="proyecto" sheetId="9" r:id="rId6"/>
+    <sheet name="cliente" sheetId="6" r:id="rId7"/>
+    <sheet name="usuario" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="134">
   <si>
     <t>identificador</t>
   </si>
@@ -347,13 +349,106 @@
   </si>
   <si>
     <t>marcus.bernal@hotmail.com</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Solving</t>
+  </si>
+  <si>
+    <t>Solved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>identificador_tipo_proyecto</t>
+  </si>
+  <si>
+    <t>identificador_cliente</t>
+  </si>
+  <si>
+    <t>prefijo</t>
+  </si>
+  <si>
+    <t>Metalt</t>
+  </si>
+  <si>
+    <t>Silical</t>
+  </si>
+  <si>
+    <t>Diamino</t>
+  </si>
+  <si>
+    <t>Corona</t>
+  </si>
+  <si>
+    <t>Ballure</t>
+  </si>
+  <si>
+    <t>Rickstan</t>
+  </si>
+  <si>
+    <t>Silver Mountain</t>
+  </si>
+  <si>
+    <t>Steel Fuse</t>
+  </si>
+  <si>
+    <t>Genibit</t>
+  </si>
+  <si>
+    <t>Suball</t>
+  </si>
+  <si>
+    <t>Polynet</t>
+  </si>
+  <si>
+    <t>Prosome</t>
+  </si>
+  <si>
+    <t>SEE</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>PSE</t>
+  </si>
+  <si>
+    <t>POT</t>
+  </si>
+  <si>
+    <t>DIO</t>
+  </si>
+  <si>
+    <t>SLL</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>STN</t>
+  </si>
+  <si>
+    <t>COA</t>
+  </si>
+  <si>
+    <t>RTN</t>
+  </si>
+  <si>
+    <t>BUE</t>
+  </si>
+  <si>
+    <t>SUL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,6 +808,150 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DE95F2-44FD-9843-89ED-CA8C9175C2F1}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1157A8A9-9EAA-4DA4-995C-8F3D21DB7846}">
+  <sheetPr>
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB927850-45F1-4571-A698-E37A2C0E2205}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -723,13 +962,13 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -745,7 +984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -753,7 +992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -761,7 +1000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -775,7 +1014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527379FF-9BC2-46A7-B19B-93CF8C39F085}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -786,13 +1025,13 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -800,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -808,7 +1047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -816,7 +1055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -824,7 +1063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -837,7 +1076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2067C086-E6E9-4700-8A2E-DE8182E27C2B}">
   <sheetPr>
     <tabColor theme="7"/>
@@ -848,13 +1087,13 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -862,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -870,7 +1109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -878,7 +1117,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -886,7 +1125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -894,7 +1133,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -902,7 +1141,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -915,85 +1154,245 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1157A8A9-9EAA-4DA4-995C-8F3D21DB7846}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684321D3-6C33-FC48-80D1-CD1E92601597}">
   <sheetPr>
-    <tabColor theme="7"/>
+    <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>22</v>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +1400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2386EF86-A6CF-455B-A2D4-B310BA49279B}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -1009,23 +1408,23 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1067,7 +1466,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1088,7 +1487,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1109,7 +1508,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1130,7 +1529,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1151,7 +1550,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1172,7 +1571,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1193,7 +1592,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1214,7 +1613,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1235,7 +1634,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1256,43 +1655,43 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="J12" s="1"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="J13" s="1"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="J14" s="1"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="J15" s="1"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="J16" s="1"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="10:11">
+    <row r="17" spans="10:11" ht="17" x14ac:dyDescent="0.2">
       <c r="J17" s="1"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="10:11">
+    <row r="18" spans="10:11" ht="17" x14ac:dyDescent="0.2">
       <c r="J18" s="1"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="10:11">
+    <row r="19" spans="10:11" ht="17" x14ac:dyDescent="0.2">
       <c r="J19" s="1"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="10:11">
+    <row r="20" spans="10:11" ht="17" x14ac:dyDescent="0.2">
       <c r="J20" s="1"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="10:11">
+    <row r="21" spans="10:11" ht="17" x14ac:dyDescent="0.2">
       <c r="J21" s="1"/>
       <c r="K21" s="3"/>
     </row>
@@ -1302,28 +1701,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D972D1-8968-4925-A75B-10707B784E51}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1363,7 +1762,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1383,7 +1782,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1403,7 +1802,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1423,7 +1822,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1443,7 +1842,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1463,7 +1862,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1483,7 +1882,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1503,7 +1902,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1523,7 +1922,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1543,7 +1942,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1563,7 +1962,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1583,7 +1982,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1603,7 +2002,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1623,7 +2022,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1650,18 +2049,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1876,18 +2275,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EB4CEBA-2817-4C41-A8DB-D6E39D701BF6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{158B67A1-446A-44CA-B317-7FE65E1D362A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{158B67A1-446A-44CA-B317-7FE65E1D362A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3EB4CEBA-2817-4C41-A8DB-D6E39D701BF6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fc7a27f9-6940-40c9-9057-ecc0537f26c8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="e6f342d1-4930-49df-bacd-8f291ccb800e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
